--- a/biology/Médecine/1492_en_santé_et_médecine/1492_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1492_en_santé_et_médecine/1492_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1492_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1492_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1492 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1492_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1492_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 mai : à Lisbonne, en Portugal, pose de la première pierre de l'Hospital Real de Todos os Santos (« hôpital royal de Tous-les-Saints »), dont la construction ne sera achevée qu'en 1504 et qui sera entièrement détruit dans le grand tremblement de terre de 1755[1].
-« Aucun écrit historique fiable, contemporain de la mort d'Innocent VIII[2], ne permet d'authentifier » le fait rapporté par certaines chroniques selon lesquelles ce pape aurait cherché un ultime remède dans la transfusion du sang de trois jeunes hommes[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 mai : à Lisbonne, en Portugal, pose de la première pierre de l'Hospital Real de Todos os Santos (« hôpital royal de Tous-les-Saints »), dont la construction ne sera achevée qu'en 1504 et qui sera entièrement détruit dans le grand tremblement de terre de 1755.
+« Aucun écrit historique fiable, contemporain de la mort d'Innocent VIII, ne permet d'authentifier » le fait rapporté par certaines chroniques selon lesquelles ce pape aurait cherché un ultime remède dans la transfusion du sang de trois jeunes hommes.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1492_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1492_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nicolas Léonicène (1428-1524) fait imprimer à Ferrare, chez De Rubeis et De Grassis, son De Plinii et aliorum in medicina erroribus, où sont relevées les erreurs médicales de Pline et d'autres auteurs latins anciens, et dont on a pu dire que « s'y manifeste la quintessence de la posture intellectuelle et critique de l'humanisme[4] ».
-Santes de Ardoynis (es), médecin de Pesaro, fait imprimer à Venise un traité sur les poisons  (De venenis[5]).
-Première édition, à Venise, sous le titre de Liber totius medicinae, seu regalis expositio, de la traduction latine donnée vers 1127 par Étienne de Pise (en), du Kitab al-Maliki du médecin persan Ali Abbas († 994[6]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nicolas Léonicène (1428-1524) fait imprimer à Ferrare, chez De Rubeis et De Grassis, son De Plinii et aliorum in medicina erroribus, où sont relevées les erreurs médicales de Pline et d'autres auteurs latins anciens, et dont on a pu dire que « s'y manifeste la quintessence de la posture intellectuelle et critique de l'humanisme ».
+Santes de Ardoynis (es), médecin de Pesaro, fait imprimer à Venise un traité sur les poisons  (De venenis).
+Première édition, à Venise, sous le titre de Liber totius medicinae, seu regalis expositio, de la traduction latine donnée vers 1127 par Étienne de Pise (en), du Kitab al-Maliki du médecin persan Ali Abbas († 994).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1492_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1492_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1475-1492 : fl. Comprat Mossé, médecin juif, à Tarascon, puis à Arles, à Marseille et enfin à Aix[7].
-1492-1493 : fl. Denis Forget, « peut-être étudiant en médecine ou barbier », qui assiste à une dissection à la faculté de médecine de Paris[7].
-1492-1502 : fl. Bernard de Le Venquière, reçu docteur en médecine à Paris, doyen de la Faculté en 1498-1500[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1475-1492 : fl. Comprat Mossé, médecin juif, à Tarascon, puis à Arles, à Marseille et enfin à Aix.
+1492-1493 : fl. Denis Forget, « peut-être étudiant en médecine ou barbier », qui assiste à une dissection à la faculté de médecine de Paris.
+1492-1502 : fl. Bernard de Le Venquière, reçu docteur en médecine à Paris, doyen de la Faculté en 1498-1500.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1492_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1492_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hiver 1491-1492 : Barthélemy Metlinger (de) (né à une date inconnue), médecin allemand, reçu docteur à Bologne, praticien à Augsbourg, surtout connu pour son Kinderbüchlein (« Petit livre des enfants ») paru en 1473, premier traité de pédiatrie jamais publié en allemand[8].
-Après 1492 : Thierry Gresmunt (né à une date inconnue), médecin, établi à Mayence en Allemagne[9].
-Entre 1492 et 1494 : Paolo Bagellardo (it) (né entre 1410 et 1420), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hiver 1491-1492 : Barthélemy Metlinger (de) (né à une date inconnue), médecin allemand, reçu docteur à Bologne, praticien à Augsbourg, surtout connu pour son Kinderbüchlein (« Petit livre des enfants ») paru en 1473, premier traité de pédiatrie jamais publié en allemand.
+Après 1492 : Thierry Gresmunt (né à une date inconnue), médecin, établi à Mayence en Allemagne.
+Entre 1492 et 1494 : Paolo Bagellardo (it) (né entre 1410 et 1420), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé.</t>
         </is>
       </c>
     </row>
